--- a/Design/Excel/GameHot/Datas/Weapon.xlsx
+++ b/Design/Excel/GameHot/Datas/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -249,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +264,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +455,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,55 +596,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,78 +656,90 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,109 +1064,116 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2 A4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.54545454545455" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.54545454545454" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1818181818182" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:8">
-      <c r="B4" s="1">
+    <row r="4" s="2" customFormat="1" spans="2:8">
+      <c r="B4" s="2">
         <v>30000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>50000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>10000</v>
       </c>
     </row>
